--- a/data/sessions_template.xlsx
+++ b/data/sessions_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\harvey\Git\muay-thai-invoice-generator\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\harvey\Git\muay-thai-invoice-generator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F2DC69A-A76F-425F-94A4-4B5C76CD6349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4A3CE3-960D-4AA2-B391-83C34FFC9761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A80EDB63-A273-440F-BC03-08188AD61ED1}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>After a session:</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Attendance</t>
   </si>
 </sst>
 </file>
@@ -236,14 +239,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -261,9 +264,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -301,7 +304,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -407,7 +410,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -549,7 +552,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -617,20 +620,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFF8172-1433-411D-AB00-5CE148A934AC}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.88671875" customWidth="1"/>
     <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -650,34 +653,37 @@
         <v>15</v>
       </c>
       <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>0</v>
       </c>
@@ -694,37 +700,40 @@
       <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" t="str">
-        <f>IF(ISBLANK($H2), "(Do Not Modify)", VLOOKUP($H2, 'Instructor Payment Details'!$A:$C, 2, FALSE))</f>
+      <c r="J2" t="str">
+        <f>IF(ISBLANK($I2), "(Do Not Modify)", VLOOKUP($I2, 'Instructor Payment Details'!$A:$C, 2, FALSE))</f>
         <v>Joseph</v>
       </c>
-      <c r="J2" t="str">
-        <f>IF(ISBLANK($H2), "(Do Not Modify)", VLOOKUP($H2, 'Instructor Payment Details'!$A:$C, 3, FALSE))</f>
+      <c r="K2" t="str">
+        <f>IF(ISBLANK($I2), "(Do Not Modify)", VLOOKUP($I2, 'Instructor Payment Details'!$A:$C, 3, FALSE))</f>
         <v>Bloggs</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>40</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>26</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>3001</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -744,43 +753,44 @@
       <c r="F3" t="s">
         <v>37</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>38</v>
       </c>
-      <c r="I3" t="str">
-        <f>IF(ISBLANK($H3), "(Do Not Modify)", VLOOKUP($H3, 'Instructor Payment Details'!$A:$C, 2, FALSE))</f>
+      <c r="J3" t="str">
+        <f>IF(ISBLANK($I3), "(Do Not Modify)", VLOOKUP($I3, 'Instructor Payment Details'!$A:$C, 2, FALSE))</f>
         <v>John</v>
       </c>
-      <c r="J3" t="str">
-        <f>IF(ISBLANK($H3), "(Do Not Modify)", VLOOKUP($H3, 'Instructor Payment Details'!$A:$C, 3, FALSE))</f>
+      <c r="K3" t="str">
+        <f>IF(ISBLANK($I3), "(Do Not Modify)", VLOOKUP($I3, 'Instructor Payment Details'!$A:$C, 3, FALSE))</f>
         <v>Appleseed</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>40</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>46</v>
-      </c>
-      <c r="N3" t="s">
-        <v>45</v>
       </c>
       <c r="O3" t="s">
         <v>45</v>
       </c>
+      <c r="P3" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="L1:L1048576 N1:O1048576">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",L1)))</formula>
+  <conditionalFormatting sqref="M1:M1048576 O1:P1048576">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",M1)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1048576 N1:O1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",L1)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",M1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
